--- a/小说构思.xlsx
+++ b/小说构思.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZZX\Desktop\小说\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZZX\Desktop\The Last Dark\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="163">
   <si>
     <t>♂</t>
   </si>
@@ -719,13 +719,29 @@
     <t>大家集体分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>雾、风、雪交替出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式进入相依为命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入冬提前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1103,110 +1119,110 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1567,20 +1583,20 @@
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="2.625" customWidth="1"/>
     <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="4" style="49" customWidth="1"/>
+    <col min="7" max="7" width="4" style="46" customWidth="1"/>
     <col min="8" max="8" width="3.375" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
     <col min="10" max="10" width="32.875" customWidth="1"/>
     <col min="11" max="11" width="34.625" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="45" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="42" customWidth="1"/>
     <col min="13" max="13" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="63" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1589,7 +1605,7 @@
       <c r="F5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="11">
         <v>58</v>
       </c>
@@ -1600,7 +1616,7 @@
       <c r="K5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="35">
         <v>2</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -1608,15 +1624,15 @@
       </c>
     </row>
     <row r="6" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="47">
         <v>3</v>
       </c>
       <c r="H6" s="11">
@@ -1629,7 +1645,7 @@
       <c r="K6" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="35">
         <v>19</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1637,15 +1653,15 @@
       </c>
     </row>
     <row r="7" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="55"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="11">
         <v>31</v>
       </c>
@@ -1658,7 +1674,7 @@
       <c r="K7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="35">
         <v>3</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1666,15 +1682,15 @@
       </c>
     </row>
     <row r="8" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="47">
         <v>4</v>
       </c>
       <c r="H8" s="11">
@@ -1689,23 +1705,23 @@
       <c r="K8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="57">
+      <c r="L8" s="54">
         <v>-1</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="55"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="11">
         <v>19</v>
       </c>
@@ -1718,7 +1734,7 @@
       <c r="K9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="35">
         <v>4</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1726,15 +1742,15 @@
       </c>
     </row>
     <row r="10" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="48">
         <v>6</v>
       </c>
       <c r="H10" s="11">
@@ -1749,29 +1765,29 @@
       <c r="K10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="58">
+      <c r="L10" s="55">
         <v>-1</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="30" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C11" s="30"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="46"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="40"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="37"/>
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C12" s="30"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="62"/>
+      <c r="D12" s="64" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -1780,7 +1796,7 @@
       <c r="F12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="53">
         <v>1</v>
       </c>
       <c r="H12" s="11">
@@ -1793,23 +1809,23 @@
       <c r="K12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="57">
+      <c r="L12" s="54">
         <v>-1</v>
       </c>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C13" s="30"/>
-      <c r="D13" s="36"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="11">
         <v>31</v>
       </c>
@@ -1820,7 +1836,7 @@
       <c r="K13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="35">
         <v>11</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1828,15 +1844,15 @@
       </c>
     </row>
     <row r="14" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C14" s="30"/>
-      <c r="D14" s="36"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="47">
         <v>1</v>
       </c>
       <c r="H14" s="11">
@@ -1849,23 +1865,23 @@
       <c r="K14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="54">
         <v>-1</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="M14" s="30" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C15" s="30"/>
-      <c r="D15" s="36"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="48">
         <v>5</v>
       </c>
       <c r="H15" s="11">
@@ -1880,29 +1896,29 @@
       <c r="K15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="58">
+      <c r="L15" s="55">
         <v>-1</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="30" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C16" s="30"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="46"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="40"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="37"/>
       <c r="M16" s="19"/>
     </row>
     <row r="17" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C17" s="30"/>
-      <c r="D17" s="37" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="34" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="9" t="s">
@@ -1911,7 +1927,7 @@
       <c r="F17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="50"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="18">
         <v>43</v>
       </c>
@@ -1922,29 +1938,29 @@
       <c r="K17" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="35">
         <v>1</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="3:13" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C18" s="30"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="40"/>
+    <row r="18" spans="3:13" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C18" s="62"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="37"/>
       <c r="M18" s="19"/>
     </row>
     <row r="19" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C19" s="30"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="62"/>
+      <c r="D19" s="64" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -1953,7 +1969,7 @@
       <c r="F19" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="11">
         <v>39</v>
       </c>
@@ -1964,7 +1980,7 @@
       <c r="K19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="35">
         <v>10</v>
       </c>
       <c r="M19" s="16" t="s">
@@ -1972,15 +1988,15 @@
       </c>
     </row>
     <row r="20" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C20" s="30"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="11">
         <v>29</v>
       </c>
@@ -1993,7 +2009,7 @@
       <c r="K20" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="35">
         <v>12</v>
       </c>
       <c r="M20" s="4" t="s">
@@ -2001,15 +2017,15 @@
       </c>
     </row>
     <row r="21" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C21" s="30"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="51"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="11">
         <v>38</v>
       </c>
@@ -2020,21 +2036,21 @@
       <c r="K21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="36">
         <v>7</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="3:13" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="30"/>
-      <c r="G22" s="48"/>
-      <c r="L22" s="41"/>
+    <row r="22" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="62"/>
+      <c r="G22" s="45"/>
+      <c r="L22" s="38"/>
       <c r="M22" s="19"/>
     </row>
     <row r="23" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="30"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2044,7 +2060,7 @@
       <c r="F23" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="52"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="18">
         <v>42</v>
       </c>
@@ -2055,23 +2071,23 @@
       <c r="K23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="39">
         <v>9</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="3:13" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G24" s="48"/>
-      <c r="L24" s="41"/>
+    <row r="24" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G24" s="45"/>
+      <c r="L24" s="38"/>
       <c r="M24" s="19"/>
     </row>
     <row r="25" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -2080,7 +2096,7 @@
       <c r="F25" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="53"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="18">
         <v>48</v>
       </c>
@@ -2091,7 +2107,7 @@
       <c r="K25" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="40">
         <v>8</v>
       </c>
       <c r="M25" s="4" t="s">
@@ -2099,15 +2115,15 @@
       </c>
     </row>
     <row r="26" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="54"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="4">
         <v>31</v>
       </c>
@@ -2118,7 +2134,7 @@
       <c r="K26" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L26" s="39">
         <v>18</v>
       </c>
       <c r="M26" s="4" t="s">
@@ -2126,15 +2142,15 @@
       </c>
     </row>
     <row r="27" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="54"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="18">
         <v>30</v>
       </c>
@@ -2147,7 +2163,7 @@
       <c r="K27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L27" s="43">
+      <c r="L27" s="40">
         <v>14</v>
       </c>
       <c r="M27" s="4" t="s">
@@ -2155,15 +2171,15 @@
       </c>
     </row>
     <row r="28" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="54"/>
+      <c r="G28" s="51"/>
       <c r="H28" s="4">
         <v>35</v>
       </c>
@@ -2176,7 +2192,7 @@
       <c r="K28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L28" s="42">
+      <c r="L28" s="39">
         <v>15</v>
       </c>
       <c r="M28" s="4" t="s">
@@ -2184,15 +2200,15 @@
       </c>
     </row>
     <row r="29" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="52"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="18">
         <v>23</v>
       </c>
@@ -2203,22 +2219,22 @@
       <c r="K29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L29" s="43">
+      <c r="L29" s="40">
         <v>13</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="3:13" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="30"/>
-      <c r="G30" s="48"/>
-      <c r="L30" s="41"/>
+    <row r="30" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="62"/>
+      <c r="G30" s="45"/>
+      <c r="L30" s="38"/>
       <c r="M30" s="19"/>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
+      <c r="C31" s="62"/>
+      <c r="D31" s="62" t="s">
         <v>66</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2227,7 +2243,7 @@
       <c r="F31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="53"/>
+      <c r="G31" s="50"/>
       <c r="H31" s="4">
         <v>57</v>
       </c>
@@ -2238,7 +2254,7 @@
       <c r="K31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L31" s="43">
+      <c r="L31" s="40">
         <v>6</v>
       </c>
       <c r="M31" s="4" t="s">
@@ -2246,15 +2262,15 @@
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="52"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="4">
         <v>55</v>
       </c>
@@ -2267,22 +2283,22 @@
       <c r="K32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="43">
+      <c r="L32" s="40">
         <v>5</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="3:13" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="30"/>
-      <c r="G33" s="48"/>
-      <c r="L33" s="41"/>
+    <row r="33" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="62"/>
+      <c r="G33" s="45"/>
+      <c r="L33" s="38"/>
       <c r="M33" s="19"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C34" s="30"/>
-      <c r="D34" s="30" t="s">
+      <c r="C34" s="62"/>
+      <c r="D34" s="62" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2291,7 +2307,7 @@
       <c r="F34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="54"/>
+      <c r="G34" s="51"/>
       <c r="H34" s="4">
         <v>37</v>
       </c>
@@ -2302,7 +2318,7 @@
       <c r="K34" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L34" s="43">
+      <c r="L34" s="40">
         <v>16</v>
       </c>
       <c r="M34" s="4" t="s">
@@ -2310,15 +2326,15 @@
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
       <c r="E35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="54"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="4">
         <v>41</v>
       </c>
@@ -2329,7 +2345,7 @@
       <c r="K35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L35" s="44">
+      <c r="L35" s="41">
         <v>17</v>
       </c>
       <c r="M35" s="4" t="s">
@@ -2337,15 +2353,15 @@
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="53">
+      <c r="G36" s="50">
         <v>2</v>
       </c>
       <c r="H36" s="4">
@@ -2358,23 +2374,23 @@
       <c r="K36" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L36" s="59">
+      <c r="L36" s="56">
         <v>-1</v>
       </c>
-      <c r="M36" s="32" t="s">
+      <c r="M36" s="30" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
       <c r="E37" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="52"/>
+      <c r="G37" s="49"/>
       <c r="H37" s="4">
         <v>45</v>
       </c>
@@ -2387,10 +2403,10 @@
       <c r="K37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L37" s="60">
+      <c r="L37" s="57">
         <v>-1</v>
       </c>
-      <c r="M37" s="32" t="s">
+      <c r="M37" s="30" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2413,72 +2429,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I22"/>
+  <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9" style="62"/>
-    <col min="4" max="4" width="13.25" style="62" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="62" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="62" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="62" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="62" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="62"/>
+    <col min="1" max="4" width="9" style="59"/>
+    <col min="5" max="5" width="13.25" style="59" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="59" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="59" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="59" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="59" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="59"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="61" t="s">
+    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="F2" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="G2" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="H2" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="I2" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="J2" s="58" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="63">
+    <row r="3" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="60">
         <v>0</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="F3" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="G3" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="H3" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" s="13">
         <v>1</v>
       </c>
@@ -2486,103 +2506,114 @@
         <v>124</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="13">
         <v>2</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="13">
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="13">
         <v>4</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="13">
         <v>5</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>160</v>
+      </c>
       <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="13">
         <v>6</v>
       </c>
@@ -2595,8 +2626,9 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="13">
         <v>7</v>
       </c>
@@ -2607,8 +2639,9 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="13">
         <v>8</v>
       </c>
@@ -2619,8 +2652,9 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="13">
         <v>9</v>
       </c>
@@ -2631,8 +2665,9 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" s="13">
         <v>10</v>
       </c>
@@ -2643,8 +2678,9 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" s="13">
         <v>11</v>
       </c>
@@ -2655,8 +2691,9 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" s="13">
         <v>12</v>
       </c>
@@ -2667,8 +2704,9 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" s="13">
         <v>13</v>
       </c>
@@ -2679,8 +2717,9 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="13">
         <v>14</v>
       </c>
@@ -2691,8 +2730,9 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="13">
         <v>15</v>
       </c>
@@ -2703,8 +2743,9 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="13">
         <v>16</v>
       </c>
@@ -2715,8 +2756,9 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="13">
         <v>17</v>
       </c>
@@ -2727,8 +2769,9 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="13">
         <v>18</v>
       </c>
@@ -2739,8 +2782,9 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="13">
         <v>19</v>
       </c>
@@ -2751,9 +2795,11 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/小说构思.xlsx
+++ b/小说构思.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
   </bookViews>
   <sheets>
     <sheet name="人物关系与性格" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="166">
   <si>
     <t>♂</t>
   </si>
@@ -282,10 +282,6 @@
     <t>本本分分，没有一点坏心眼，没文化</t>
   </si>
   <si>
-    <t>盖斯·乌龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沃克·弗朗西斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,10 +327,6 @@
   </si>
   <si>
     <t>匡西特加油站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倚老卖老，总觉得自己是最牛的人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -428,10 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胆大妄为，目中无人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有钱，生活比较高贵，不乐意将就，胆小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>潘斯·洛夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>反面角色，想统治所有人，不择手段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,10 +676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发现猎户尸体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猎户死亡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -733,6 +713,38 @@
   </si>
   <si>
     <t>入冬提前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现瞭望者尸体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险袭来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘斯·波特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒潮加剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖斯·匡西特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倚老卖老，觉得自己最牛，逃避责任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹夫之勇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1574,18 +1586,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="2.625" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="4" style="46" customWidth="1"/>
     <col min="8" max="8" width="3.375" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="32.875" customWidth="1"/>
     <col min="11" max="11" width="34.625" customWidth="1"/>
     <col min="12" max="12" width="4.625" style="42" customWidth="1"/>
@@ -1620,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1643,13 +1655,13 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L6" s="35">
         <v>19</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1666,10 +1678,10 @@
         <v>31</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>5</v>
@@ -1678,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1697,10 +1709,10 @@
         <v>32</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>6</v>
@@ -1709,7 +1721,7 @@
         <v>-1</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
@@ -1729,7 +1741,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>7</v>
@@ -1738,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
@@ -1760,7 +1772,7 @@
         <v>35</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>8</v>
@@ -1769,7 +1781,7 @@
         <v>-1</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1813,7 +1825,7 @@
         <v>-1</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1840,7 +1852,7 @@
         <v>11</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
@@ -1850,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G14" s="47">
         <v>1</v>
@@ -1869,7 +1881,7 @@
         <v>-1</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
@@ -1888,10 +1900,10 @@
         <v>18</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>37</v>
@@ -1900,7 +1912,7 @@
         <v>-1</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1936,13 +1948,13 @@
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L17" s="35">
         <v>1</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="3:13" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1967,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="11">
@@ -1984,7 +1996,7 @@
         <v>10</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1994,26 +2006,26 @@
         <v>1</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="11">
         <v>29</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L20" s="35">
         <v>12</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2023,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="11">
@@ -2040,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
@@ -2069,13 +2081,13 @@
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L23" s="39">
         <v>9</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
@@ -2085,16 +2097,16 @@
     </row>
     <row r="25" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C25" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="62" t="s">
         <v>64</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="50"/>
       <c r="H25" s="18">
@@ -2105,13 +2117,13 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L25" s="40">
         <v>8</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2121,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" s="51"/>
       <c r="H26" s="4">
@@ -2132,13 +2144,13 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L26" s="39">
         <v>18</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2148,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="51"/>
       <c r="H27" s="18">
@@ -2158,16 +2170,16 @@
         <v>43</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="L27" s="40">
         <v>14</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2177,17 +2189,17 @@
         <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28" s="51"/>
       <c r="H28" s="4">
         <v>35</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>45</v>
@@ -2196,7 +2208,7 @@
         <v>15</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2206,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G29" s="49"/>
       <c r="H29" s="18">
@@ -2217,13 +2229,13 @@
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L29" s="40">
         <v>13</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
@@ -2235,7 +2247,7 @@
     <row r="31" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C31" s="62"/>
       <c r="D31" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>0</v>
@@ -2252,13 +2264,13 @@
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="4" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="L31" s="40">
         <v>6</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.15">
@@ -2278,16 +2290,16 @@
         <v>49</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L32" s="40">
         <v>5</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
@@ -2299,13 +2311,13 @@
     <row r="34" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C34" s="62"/>
       <c r="D34" s="62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="G34" s="51"/>
       <c r="H34" s="4">
@@ -2316,13 +2328,13 @@
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L34" s="40">
         <v>16</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.15">
@@ -2332,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" s="51"/>
       <c r="H35" s="4">
@@ -2343,13 +2355,13 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L35" s="41">
         <v>17</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.15">
@@ -2359,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G36" s="50">
         <v>2</v>
@@ -2372,13 +2384,13 @@
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L36" s="56">
         <v>-1</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.15">
@@ -2388,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G37" s="49"/>
       <c r="H37" s="4">
@@ -2398,7 +2410,7 @@
         <v>53</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>54</v>
@@ -2407,7 +2419,7 @@
         <v>-1</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2431,14 +2443,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="9" style="59"/>
-    <col min="5" max="5" width="13.25" style="59" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="59" customWidth="1"/>
     <col min="6" max="6" width="22.25" style="59" customWidth="1"/>
     <col min="7" max="7" width="19.625" style="59" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="59" customWidth="1"/>
@@ -2448,31 +2460,31 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="58" t="s">
+      <c r="H2" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="I2" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="J2" s="58" t="s">
         <v>137</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.15">
@@ -2480,20 +2492,20 @@
         <v>0</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D3" s="60"/>
       <c r="E3" s="60" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H3" s="61" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I3" s="60"/>
       <c r="J3" s="60"/>
@@ -2503,19 +2515,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -2526,17 +2538,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="13"/>
+        <v>121</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="E5" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -2547,20 +2561,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="E6" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -2570,23 +2586,25 @@
         <v>4</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>160</v>
+      </c>
       <c r="E7" s="13" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J7" s="13"/>
     </row>
@@ -2595,20 +2613,20 @@
         <v>5</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -2618,7 +2636,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>

--- a/小说构思.xlsx
+++ b/小说构思.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="167">
   <si>
     <t>♂</t>
   </si>
@@ -208,9 +208,6 @@
     </r>
   </si>
   <si>
-    <t>芬特·伍德</t>
-  </si>
-  <si>
     <t>资深猎户</t>
   </si>
   <si>
@@ -745,6 +742,14 @@
   </si>
   <si>
     <t>匹夫之勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电大坝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马克思·伍德</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1586,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1609,7 +1614,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>0</v>
@@ -1632,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1655,13 +1660,13 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L6" s="35">
         <v>19</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1678,10 +1683,10 @@
         <v>31</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>5</v>
@@ -1690,7 +1695,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1709,10 +1714,10 @@
         <v>32</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>6</v>
@@ -1721,7 +1726,7 @@
         <v>-1</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
@@ -1741,7 +1746,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>7</v>
@@ -1750,7 +1755,7 @@
         <v>4</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
@@ -1772,7 +1777,7 @@
         <v>35</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>8</v>
@@ -1781,7 +1786,7 @@
         <v>-1</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1825,7 +1830,7 @@
         <v>-1</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1852,7 +1857,7 @@
         <v>11</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
@@ -1862,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="47">
         <v>1</v>
       </c>
       <c r="H14" s="11">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>36</v>
@@ -1881,7 +1886,7 @@
         <v>-1</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
@@ -1900,10 +1905,10 @@
         <v>18</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>37</v>
@@ -1912,7 +1917,7 @@
         <v>-1</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1948,13 +1953,13 @@
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L17" s="35">
         <v>1</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="3:13" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1979,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="11">
@@ -1996,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2006,26 +2011,26 @@
         <v>1</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="11">
         <v>29</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L20" s="35">
         <v>12</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2035,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="11">
@@ -2052,7 +2057,7 @@
         <v>7</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
@@ -2064,30 +2069,30 @@
     <row r="23" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="62"/>
       <c r="D23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="18">
         <v>42</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L23" s="39">
         <v>9</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
@@ -2097,33 +2102,33 @@
     </row>
     <row r="25" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C25" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="62" t="s">
         <v>63</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>64</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" s="50"/>
       <c r="H25" s="18">
         <v>48</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L25" s="40">
         <v>8</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2133,24 +2138,24 @@
         <v>0</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" s="51"/>
       <c r="H26" s="4">
         <v>31</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L26" s="39">
         <v>18</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2160,26 +2165,26 @@
         <v>0</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="51"/>
       <c r="H27" s="18">
         <v>30</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L27" s="40">
         <v>14</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2189,26 +2194,26 @@
         <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G28" s="51"/>
       <c r="H28" s="4">
         <v>35</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L28" s="39">
         <v>15</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2218,24 +2223,24 @@
         <v>0</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" s="49"/>
       <c r="H29" s="18">
         <v>23</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L29" s="40">
         <v>13</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
@@ -2247,30 +2252,30 @@
     <row r="31" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C31" s="62"/>
       <c r="D31" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="50"/>
       <c r="H31" s="4">
         <v>57</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L31" s="40">
         <v>6</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.15">
@@ -2280,26 +2285,26 @@
         <v>1</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G32" s="49"/>
       <c r="H32" s="4">
         <v>55</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L32" s="40">
         <v>5</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
@@ -2311,30 +2316,30 @@
     <row r="34" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C34" s="62"/>
       <c r="D34" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G34" s="51"/>
       <c r="H34" s="4">
         <v>37</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L34" s="40">
         <v>16</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.15">
@@ -2344,24 +2349,24 @@
         <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G35" s="51"/>
       <c r="H35" s="4">
         <v>41</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L35" s="41">
         <v>17</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.15">
@@ -2371,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" s="50">
         <v>2</v>
@@ -2380,17 +2385,17 @@
         <v>26</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L36" s="56">
         <v>-1</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.15">
@@ -2400,26 +2405,26 @@
         <v>1</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G37" s="49"/>
       <c r="H37" s="4">
         <v>45</v>
       </c>
       <c r="I37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="L37" s="57">
         <v>-1</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2460,31 +2465,31 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="D2" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="58" t="s">
+      <c r="F2" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="58" t="s">
-        <v>133</v>
-      </c>
       <c r="H2" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="J2" s="58" t="s">
         <v>136</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.15">
@@ -2492,20 +2497,20 @@
         <v>0</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="60"/>
       <c r="E3" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="G3" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="60" t="s">
-        <v>128</v>
-      </c>
       <c r="H3" s="61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I3" s="60"/>
       <c r="J3" s="60"/>
@@ -2515,19 +2520,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -2538,19 +2543,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>142</v>
-      </c>
       <c r="G5" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -2561,22 +2566,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>145</v>
-      </c>
       <c r="H6" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -2586,25 +2591,25 @@
         <v>4</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>151</v>
-      </c>
       <c r="I7" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J7" s="13"/>
     </row>
@@ -2613,20 +2618,20 @@
         <v>5</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>155</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -2636,7 +2641,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>

--- a/小说构思.xlsx
+++ b/小说构思.xlsx
@@ -16,6 +16,7 @@
     <sheet name="故事大纲" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="162">
   <si>
     <t>♂</t>
   </si>
@@ -129,9 +130,6 @@
   </si>
   <si>
     <t>运输管理员</t>
-  </si>
-  <si>
-    <t>为人十分正直，清官一个</t>
   </si>
   <si>
     <t>不怕冒险，乐意出去探索</t>
@@ -673,38 +671,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猎户死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现狼群，下山冻死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他人讨论问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引出狼群为敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天气崩溃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大家集体分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雾、风、雪交替出现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式进入相依为命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>章节名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -717,14 +683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发现瞭望者尸体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>危险袭来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>潘斯·波特</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -750,6 +708,30 @@
   </si>
   <si>
     <t>马克思·伍德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为人十分正直，清官一个，急性子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无路可退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隧道坍塌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木头堆积过高撞山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两边都坍塌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与世隔绝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1591,15 +1573,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="2.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
     <col min="7" max="7" width="4" style="46" customWidth="1"/>
     <col min="8" max="8" width="3.375" customWidth="1"/>
     <col min="9" max="9" width="15.375" customWidth="1"/>
@@ -1614,7 +1596,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>0</v>
@@ -1637,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1660,13 +1642,13 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L6" s="35">
         <v>19</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1683,10 +1665,10 @@
         <v>31</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>5</v>
@@ -1695,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1714,10 +1696,10 @@
         <v>32</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>6</v>
@@ -1726,7 +1708,7 @@
         <v>-1</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
@@ -1743,10 +1725,10 @@
         <v>19</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>7</v>
@@ -1755,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
@@ -1774,10 +1756,10 @@
         <v>21</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>8</v>
@@ -1786,7 +1768,7 @@
         <v>-1</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1830,7 +1812,7 @@
         <v>-1</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1857,7 +1839,7 @@
         <v>11</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
@@ -1867,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G14" s="47">
         <v>1</v>
@@ -1876,7 +1858,7 @@
         <v>25</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
@@ -1886,7 +1868,7 @@
         <v>-1</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
@@ -1905,19 +1887,19 @@
         <v>18</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="55">
         <v>-1</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -1953,13 +1935,13 @@
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L17" s="35">
         <v>1</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="3:13" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1978,13 +1960,13 @@
     <row r="19" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C19" s="62"/>
       <c r="D19" s="64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="11">
@@ -1995,13 +1977,13 @@
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="L19" s="35">
         <v>10</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2011,26 +1993,26 @@
         <v>1</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="11">
         <v>29</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L20" s="35">
         <v>12</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2040,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="11">
@@ -2051,13 +2033,13 @@
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L21" s="36">
         <v>7</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
@@ -2069,30 +2051,30 @@
     <row r="23" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="62"/>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="18">
         <v>42</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L23" s="39">
         <v>9</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
@@ -2102,33 +2084,33 @@
     </row>
     <row r="25" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C25" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="62" t="s">
         <v>62</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>63</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G25" s="50"/>
       <c r="H25" s="18">
         <v>48</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L25" s="40">
         <v>8</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2138,24 +2120,24 @@
         <v>0</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" s="51"/>
       <c r="H26" s="4">
         <v>31</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L26" s="39">
         <v>18</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2165,26 +2147,26 @@
         <v>0</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="51"/>
       <c r="H27" s="18">
         <v>30</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L27" s="40">
         <v>14</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2194,26 +2176,26 @@
         <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28" s="51"/>
       <c r="H28" s="4">
         <v>35</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L28" s="39">
         <v>15</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2223,24 +2205,24 @@
         <v>0</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G29" s="49"/>
       <c r="H29" s="18">
         <v>23</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L29" s="40">
         <v>13</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
@@ -2252,30 +2234,30 @@
     <row r="31" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C31" s="62"/>
       <c r="D31" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="50"/>
+        <v>44</v>
+      </c>
+      <c r="G31" s="51"/>
       <c r="H31" s="4">
         <v>57</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="L31" s="40">
         <v>6</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.15">
@@ -2285,26 +2267,26 @@
         <v>1</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32" s="49"/>
       <c r="H32" s="4">
         <v>55</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L32" s="40">
         <v>5</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
@@ -2316,30 +2298,30 @@
     <row r="34" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C34" s="62"/>
       <c r="D34" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G34" s="51"/>
       <c r="H34" s="4">
         <v>37</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L34" s="40">
         <v>16</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.15">
@@ -2349,24 +2331,24 @@
         <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G35" s="51"/>
       <c r="H35" s="4">
         <v>41</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L35" s="41">
         <v>17</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.15">
@@ -2376,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G36" s="50">
         <v>2</v>
@@ -2385,17 +2367,17 @@
         <v>26</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L36" s="56">
         <v>-1</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.15">
@@ -2405,26 +2387,26 @@
         <v>1</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" s="49"/>
       <c r="H37" s="4">
         <v>45</v>
       </c>
       <c r="I37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="L37" s="57">
         <v>-1</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2449,7 +2431,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2465,31 +2447,31 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="D2" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="58" t="s">
+      <c r="F2" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="58" t="s">
-        <v>132</v>
-      </c>
       <c r="H2" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="J2" s="58" t="s">
         <v>135</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.15">
@@ -2497,20 +2479,20 @@
         <v>0</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="60"/>
       <c r="E3" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="G3" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="60" t="s">
-        <v>127</v>
-      </c>
       <c r="H3" s="61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I3" s="60"/>
       <c r="J3" s="60"/>
@@ -2520,19 +2502,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -2543,19 +2525,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>141</v>
-      </c>
       <c r="G5" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -2566,22 +2548,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>144</v>
-      </c>
       <c r="H6" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -2591,26 +2573,24 @@
         <v>4</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>158</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>147</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="I7" s="13"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -2618,21 +2598,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
     </row>
@@ -2641,7 +2613,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>

--- a/小说构思.xlsx
+++ b/小说构思.xlsx
@@ -16,7 +16,6 @@
     <sheet name="故事大纲" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1027,7 +1026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1130,9 +1129,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,6 +1210,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1221,6 +1235,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1573,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1582,56 +1599,56 @@
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="2.625" customWidth="1"/>
     <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="4" style="46" customWidth="1"/>
+    <col min="7" max="7" width="4" style="45" customWidth="1"/>
     <col min="8" max="8" width="3.375" customWidth="1"/>
     <col min="9" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="32.875" customWidth="1"/>
     <col min="11" max="11" width="34.625" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="42" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="41" customWidth="1"/>
     <col min="13" max="13" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C5" s="62" t="s">
+    <row r="5" spans="3:13" s="66" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="62" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="11">
+      <c r="G5" s="63"/>
+      <c r="H5" s="64">
         <v>58</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
+      <c r="J5" s="20"/>
+      <c r="K5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="61">
         <v>2</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="65" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="46">
         <v>3</v>
       </c>
       <c r="H6" s="11">
@@ -1644,7 +1661,7 @@
       <c r="K6" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="34">
         <v>19</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1652,15 +1669,15 @@
       </c>
     </row>
     <row r="7" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="11">
         <v>31</v>
       </c>
@@ -1673,7 +1690,7 @@
       <c r="K7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="34">
         <v>3</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1681,15 +1698,15 @@
       </c>
     </row>
     <row r="8" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="46">
         <v>4</v>
       </c>
       <c r="H8" s="11">
@@ -1704,7 +1721,7 @@
       <c r="K8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="53">
         <v>-1</v>
       </c>
       <c r="M8" s="30" t="s">
@@ -1712,15 +1729,15 @@
       </c>
     </row>
     <row r="9" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="52"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="11">
         <v>19</v>
       </c>
@@ -1733,7 +1750,7 @@
       <c r="K9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="34">
         <v>4</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1741,15 +1758,15 @@
       </c>
     </row>
     <row r="10" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="47">
         <v>6</v>
       </c>
       <c r="H10" s="11">
@@ -1764,7 +1781,7 @@
       <c r="K10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10" s="54">
         <v>-1</v>
       </c>
       <c r="M10" s="30" t="s">
@@ -1772,21 +1789,21 @@
       </c>
     </row>
     <row r="11" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C11" s="62"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="43"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="31"/>
-      <c r="L11" s="37"/>
+      <c r="L11" s="36"/>
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C12" s="62"/>
-      <c r="D12" s="64" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="69" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -1795,7 +1812,7 @@
       <c r="F12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="52">
         <v>1</v>
       </c>
       <c r="H12" s="11">
@@ -1808,7 +1825,7 @@
       <c r="K12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="53">
         <v>-1</v>
       </c>
       <c r="M12" s="30" t="s">
@@ -1816,17 +1833,17 @@
       </c>
     </row>
     <row r="13" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C13" s="62"/>
-      <c r="D13" s="64"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="47"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="11">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>20</v>
@@ -1835,23 +1852,23 @@
       <c r="K13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="35">
-        <v>11</v>
+      <c r="L13" s="34">
+        <v>10</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C14" s="62"/>
-      <c r="D14" s="64"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="46">
         <v>1</v>
       </c>
       <c r="H14" s="11">
@@ -1864,7 +1881,7 @@
       <c r="K14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14" s="53">
         <v>-1</v>
       </c>
       <c r="M14" s="30" t="s">
@@ -1872,15 +1889,15 @@
       </c>
     </row>
     <row r="15" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C15" s="62"/>
-      <c r="D15" s="64"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="47">
         <v>5</v>
       </c>
       <c r="H15" s="11">
@@ -1895,7 +1912,7 @@
       <c r="K15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15" s="54">
         <v>-1</v>
       </c>
       <c r="M15" s="30" t="s">
@@ -1903,63 +1920,63 @@
       </c>
     </row>
     <row r="16" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C16" s="62"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="43"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="37"/>
+      <c r="L16" s="36"/>
       <c r="M16" s="19"/>
     </row>
-    <row r="17" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C17" s="62"/>
-      <c r="D17" s="34" t="s">
+    <row r="17" spans="3:13" s="66" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C17" s="67"/>
+      <c r="D17" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="18">
+      <c r="G17" s="63"/>
+      <c r="H17" s="64">
         <v>43</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="s">
+      <c r="J17" s="20"/>
+      <c r="K17" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="61">
         <v>1</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="65" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="18" spans="3:13" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C18" s="62"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="44"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="37"/>
+      <c r="L18" s="36"/>
       <c r="M18" s="19"/>
     </row>
     <row r="19" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C19" s="62"/>
-      <c r="D19" s="64" t="s">
+      <c r="C19" s="67"/>
+      <c r="D19" s="69" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -1968,7 +1985,7 @@
       <c r="F19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="47"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="11">
         <v>39</v>
       </c>
@@ -1979,23 +1996,23 @@
       <c r="K19" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="L19" s="35">
-        <v>10</v>
+      <c r="L19" s="34">
+        <v>11</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C20" s="62"/>
-      <c r="D20" s="64"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="47"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="11">
         <v>29</v>
       </c>
@@ -2008,7 +2025,7 @@
       <c r="K20" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="34">
         <v>12</v>
       </c>
       <c r="M20" s="4" t="s">
@@ -2016,15 +2033,15 @@
       </c>
     </row>
     <row r="21" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C21" s="62"/>
-      <c r="D21" s="64"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="11">
         <v>38</v>
       </c>
@@ -2035,7 +2052,7 @@
       <c r="K21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="35">
         <v>7</v>
       </c>
       <c r="M21" s="4" t="s">
@@ -2043,13 +2060,13 @@
       </c>
     </row>
     <row r="22" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="62"/>
-      <c r="G22" s="45"/>
-      <c r="L22" s="38"/>
+      <c r="C22" s="67"/>
+      <c r="G22" s="44"/>
+      <c r="L22" s="37"/>
       <c r="M22" s="19"/>
     </row>
     <row r="23" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="62"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="1" t="s">
         <v>38</v>
       </c>
@@ -2059,7 +2076,7 @@
       <c r="F23" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="49"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="18">
         <v>42</v>
       </c>
@@ -2070,7 +2087,7 @@
       <c r="K23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="L23" s="39">
+      <c r="L23" s="38">
         <v>9</v>
       </c>
       <c r="M23" s="4" t="s">
@@ -2078,15 +2095,15 @@
       </c>
     </row>
     <row r="24" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G24" s="45"/>
-      <c r="L24" s="38"/>
+      <c r="G24" s="44"/>
+      <c r="L24" s="37"/>
       <c r="M24" s="19"/>
     </row>
     <row r="25" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="67" t="s">
         <v>62</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -2095,7 +2112,7 @@
       <c r="F25" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="50"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="18">
         <v>48</v>
       </c>
@@ -2106,7 +2123,7 @@
       <c r="K25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="39">
         <v>8</v>
       </c>
       <c r="M25" s="4" t="s">
@@ -2114,15 +2131,15 @@
       </c>
     </row>
     <row r="26" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
       <c r="E26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="51"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="4">
         <v>31</v>
       </c>
@@ -2133,7 +2150,7 @@
       <c r="K26" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="38">
         <v>18</v>
       </c>
       <c r="M26" s="4" t="s">
@@ -2141,15 +2158,15 @@
       </c>
     </row>
     <row r="27" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
       <c r="E27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="51"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="18">
         <v>30</v>
       </c>
@@ -2162,7 +2179,7 @@
       <c r="K27" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="L27" s="40">
+      <c r="L27" s="39">
         <v>14</v>
       </c>
       <c r="M27" s="4" t="s">
@@ -2170,15 +2187,15 @@
       </c>
     </row>
     <row r="28" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
       <c r="E28" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="51"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="4">
         <v>35</v>
       </c>
@@ -2191,7 +2208,7 @@
       <c r="K28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="38">
         <v>15</v>
       </c>
       <c r="M28" s="4" t="s">
@@ -2199,15 +2216,15 @@
       </c>
     </row>
     <row r="29" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
       <c r="E29" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="49"/>
+      <c r="G29" s="48"/>
       <c r="H29" s="18">
         <v>23</v>
       </c>
@@ -2218,7 +2235,7 @@
       <c r="K29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L29" s="39">
         <v>13</v>
       </c>
       <c r="M29" s="4" t="s">
@@ -2226,14 +2243,14 @@
       </c>
     </row>
     <row r="30" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="62"/>
-      <c r="G30" s="45"/>
-      <c r="L30" s="38"/>
+      <c r="C30" s="67"/>
+      <c r="G30" s="44"/>
+      <c r="L30" s="37"/>
       <c r="M30" s="19"/>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C31" s="62"/>
-      <c r="D31" s="62" t="s">
+      <c r="C31" s="67"/>
+      <c r="D31" s="67" t="s">
         <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2242,7 +2259,7 @@
       <c r="F31" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="51"/>
+      <c r="G31" s="50"/>
       <c r="H31" s="4">
         <v>57</v>
       </c>
@@ -2253,7 +2270,7 @@
       <c r="K31" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="L31" s="40">
+      <c r="L31" s="39">
         <v>6</v>
       </c>
       <c r="M31" s="4" t="s">
@@ -2261,15 +2278,15 @@
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="49"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="4">
         <v>55</v>
       </c>
@@ -2282,7 +2299,7 @@
       <c r="K32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="39">
         <v>5</v>
       </c>
       <c r="M32" s="4" t="s">
@@ -2290,14 +2307,14 @@
       </c>
     </row>
     <row r="33" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="62"/>
-      <c r="G33" s="45"/>
-      <c r="L33" s="38"/>
+      <c r="C33" s="67"/>
+      <c r="G33" s="44"/>
+      <c r="L33" s="37"/>
       <c r="M33" s="19"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C34" s="62"/>
-      <c r="D34" s="62" t="s">
+      <c r="C34" s="67"/>
+      <c r="D34" s="67" t="s">
         <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2306,7 +2323,7 @@
       <c r="F34" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="51"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="4">
         <v>37</v>
       </c>
@@ -2317,7 +2334,7 @@
       <c r="K34" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L34" s="40">
+      <c r="L34" s="39">
         <v>16</v>
       </c>
       <c r="M34" s="4" t="s">
@@ -2325,15 +2342,15 @@
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="51"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="4">
         <v>41</v>
       </c>
@@ -2344,7 +2361,7 @@
       <c r="K35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L35" s="41">
+      <c r="L35" s="40">
         <v>17</v>
       </c>
       <c r="M35" s="4" t="s">
@@ -2352,15 +2369,15 @@
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
       <c r="E36" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="50">
+      <c r="G36" s="49">
         <v>2</v>
       </c>
       <c r="H36" s="4">
@@ -2373,7 +2390,7 @@
       <c r="K36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L36" s="56">
+      <c r="L36" s="55">
         <v>-1</v>
       </c>
       <c r="M36" s="30" t="s">
@@ -2381,15 +2398,15 @@
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
       <c r="E37" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="49"/>
+      <c r="G37" s="48"/>
       <c r="H37" s="4">
         <v>45</v>
       </c>
@@ -2402,7 +2419,7 @@
       <c r="K37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L37" s="57">
+      <c r="L37" s="56">
         <v>-1</v>
       </c>
       <c r="M37" s="30" t="s">
@@ -2436,66 +2453,66 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="9" style="59"/>
-    <col min="5" max="5" width="17.375" style="59" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="59" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="59" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="59" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="59" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="59"/>
+    <col min="1" max="4" width="9" style="58"/>
+    <col min="5" max="5" width="17.375" style="58" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="58" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="58" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="58" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="58" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="57" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="60">
+      <c r="B3" s="59">
         <v>0</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" s="13">

--- a/小说构思.xlsx
+++ b/小说构思.xlsx
@@ -1228,6 +1228,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1235,9 +1238,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1591,7 +1591,7 @@
   <dimension ref="C5:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1609,10 +1609,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:13" s="66" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="69" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="62" t="s">
@@ -1640,8 +1640,8 @@
       </c>
     </row>
     <row r="6" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="9" t="s">
         <v>0</v>
       </c>
@@ -1669,8 +1669,8 @@
       </c>
     </row>
     <row r="7" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
       <c r="E7" s="9" t="s">
         <v>0</v>
       </c>
@@ -1691,15 +1691,15 @@
         <v>5</v>
       </c>
       <c r="L7" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="9" t="s">
         <v>0</v>
       </c>
@@ -1729,8 +1729,8 @@
       </c>
     </row>
     <row r="9" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
       <c r="E9" s="9" t="s">
         <v>0</v>
       </c>
@@ -1751,15 +1751,15 @@
         <v>7</v>
       </c>
       <c r="L9" s="34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="12" t="s">
         <v>1</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
     </row>
     <row r="11" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C11" s="67"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -1802,8 +1802,8 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C12" s="67"/>
-      <c r="D12" s="69" t="s">
+      <c r="C12" s="68"/>
+      <c r="D12" s="70" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -1833,8 +1833,8 @@
       </c>
     </row>
     <row r="13" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C13" s="67"/>
-      <c r="D13" s="69"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="9" t="s">
         <v>0</v>
       </c>
@@ -1860,8 +1860,8 @@
       </c>
     </row>
     <row r="14" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C14" s="67"/>
-      <c r="D14" s="69"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="9" t="s">
         <v>0</v>
       </c>
@@ -1889,8 +1889,8 @@
       </c>
     </row>
     <row r="15" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C15" s="67"/>
-      <c r="D15" s="69"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="15" t="s">
         <v>0</v>
       </c>
@@ -1920,7 +1920,7 @@
       </c>
     </row>
     <row r="16" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C16" s="67"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -1933,8 +1933,8 @@
       <c r="M16" s="19"/>
     </row>
     <row r="17" spans="3:13" s="66" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C17" s="67"/>
-      <c r="D17" s="70" t="s">
+      <c r="C17" s="68"/>
+      <c r="D17" s="67" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="62" t="s">
@@ -1962,7 +1962,7 @@
       </c>
     </row>
     <row r="18" spans="3:13" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C18" s="67"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
@@ -1975,8 +1975,8 @@
       <c r="M18" s="19"/>
     </row>
     <row r="19" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C19" s="67"/>
-      <c r="D19" s="69" t="s">
+      <c r="C19" s="68"/>
+      <c r="D19" s="70" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="20" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C20" s="67"/>
-      <c r="D20" s="69"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="17" t="s">
         <v>1</v>
       </c>
@@ -2033,8 +2033,8 @@
       </c>
     </row>
     <row r="21" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C21" s="67"/>
-      <c r="D21" s="69"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="15" t="s">
         <v>0</v>
       </c>
@@ -2060,13 +2060,13 @@
       </c>
     </row>
     <row r="22" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="67"/>
+      <c r="C22" s="68"/>
       <c r="G22" s="44"/>
       <c r="L22" s="37"/>
       <c r="M22" s="19"/>
     </row>
     <row r="23" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="67"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="1" t="s">
         <v>38</v>
       </c>
@@ -2100,10 +2100,10 @@
       <c r="M24" s="19"/>
     </row>
     <row r="25" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="68" t="s">
         <v>62</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -2131,8 +2131,8 @@
       </c>
     </row>
     <row r="26" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="2" t="s">
         <v>0</v>
       </c>
@@ -2158,8 +2158,8 @@
       </c>
     </row>
     <row r="27" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="2" t="s">
         <v>0</v>
       </c>
@@ -2187,8 +2187,8 @@
       </c>
     </row>
     <row r="28" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="8" t="s">
         <v>1</v>
       </c>
@@ -2216,8 +2216,8 @@
       </c>
     </row>
     <row r="29" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="7" t="s">
         <v>0</v>
       </c>
@@ -2243,14 +2243,14 @@
       </c>
     </row>
     <row r="30" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="67"/>
+      <c r="C30" s="68"/>
       <c r="G30" s="44"/>
       <c r="L30" s="37"/>
       <c r="M30" s="19"/>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C31" s="67"/>
-      <c r="D31" s="67" t="s">
+      <c r="C31" s="68"/>
+      <c r="D31" s="68" t="s">
         <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2278,8 +2278,8 @@
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
       <c r="E32" s="5" t="s">
         <v>1</v>
       </c>
@@ -2307,14 +2307,14 @@
       </c>
     </row>
     <row r="33" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="67"/>
+      <c r="C33" s="68"/>
       <c r="G33" s="44"/>
       <c r="L33" s="37"/>
       <c r="M33" s="19"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C34" s="67"/>
-      <c r="D34" s="67" t="s">
+      <c r="C34" s="68"/>
+      <c r="D34" s="68" t="s">
         <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2342,8 +2342,8 @@
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="2" t="s">
         <v>0</v>
       </c>
@@ -2369,8 +2369,8 @@
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="8" t="s">
         <v>1</v>
       </c>
@@ -2398,8 +2398,8 @@
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="5" t="s">
         <v>1</v>
       </c>

--- a/小说构思.xlsx
+++ b/小说构思.xlsx
@@ -538,10 +538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>传授给渔徒，遇狼让渔徒先走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乔伊·亚当</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,6 +727,10 @@
   </si>
   <si>
     <t>与世隔绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遇狼让渔徒先走，被渔民A捂死</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,12 +1026,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1093,13 +1090,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1108,9 +1099,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1132,9 +1120,6 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1147,9 +1132,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1178,9 +1160,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,6 +1208,54 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1591,7 +1618,7 @@
   <dimension ref="C5:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1599,830 +1626,830 @@
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="2.625" customWidth="1"/>
     <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="4" style="45" customWidth="1"/>
+    <col min="7" max="7" width="4" style="39" customWidth="1"/>
     <col min="8" max="8" width="3.375" customWidth="1"/>
     <col min="9" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="32.875" customWidth="1"/>
     <col min="11" max="11" width="34.625" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="41" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="35" customWidth="1"/>
     <col min="13" max="13" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:13" s="66" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C5" s="68" t="s">
+    <row r="5" spans="3:13" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57">
+        <v>58</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="54">
+        <v>2</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="40">
+        <v>3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>36</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" s="30">
+        <v>19</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57">
+        <v>31</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="54">
+        <v>4</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="40">
+        <v>4</v>
+      </c>
+      <c r="H8" s="10">
+        <v>32</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57">
+        <v>19</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="54">
+        <v>3</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="41">
+        <v>6</v>
+      </c>
+      <c r="H10" s="10">
+        <v>21</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="47">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C11" s="77"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C12" s="77"/>
+      <c r="D12" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="45">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10">
+        <v>43</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C13" s="77"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57">
+        <v>51</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="54">
+        <v>10</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="C14" s="77"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="40">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10">
+        <v>25</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="C15" s="77"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="41">
+        <v>5</v>
+      </c>
+      <c r="H15" s="10">
+        <v>18</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="47">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C16" s="77"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="3:13" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C17" s="77"/>
+      <c r="D17" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57">
+        <v>43</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" s="54">
+        <v>1</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" s="29" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C18" s="77"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="18"/>
+    </row>
+    <row r="19" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C19" s="77"/>
+      <c r="D19" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="10">
+        <v>39</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" s="30">
+        <v>11</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C20" s="77"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="10">
+        <v>29</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="30">
+        <v>12</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C21" s="77"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="70"/>
+      <c r="H21" s="57">
+        <v>38</v>
+      </c>
+      <c r="I21" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="71">
+        <v>7</v>
+      </c>
+      <c r="M21" s="58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="77"/>
+      <c r="G22" s="38"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="3:13" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="77"/>
+      <c r="D23" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="G23" s="67"/>
+      <c r="H23" s="57">
+        <v>42</v>
+      </c>
+      <c r="I23" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" s="74">
+        <v>9</v>
+      </c>
+      <c r="M23" s="58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G24" s="38"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" spans="3:13" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C25" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="64">
+      <c r="F25" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="63"/>
+      <c r="H25" s="57">
+        <v>48</v>
+      </c>
+      <c r="I25" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="62"/>
+      <c r="K25" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="64">
+        <v>8</v>
+      </c>
+      <c r="M25" s="58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="G26" s="44"/>
+      <c r="H26" s="3">
+        <v>31</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" s="33">
+        <v>18</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="44"/>
+      <c r="H27" s="17">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L27" s="34">
+        <v>14</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="44"/>
+      <c r="H28" s="3">
+        <v>35</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="33">
+        <v>15</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="42"/>
+      <c r="H29" s="17">
+        <v>23</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="34">
+        <v>13</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="77"/>
+      <c r="G30" s="38"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="3:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="77"/>
+      <c r="D31" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="63"/>
+      <c r="H31" s="58">
+        <v>57</v>
+      </c>
+      <c r="I31" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="62"/>
+      <c r="K31" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="L31" s="64">
+        <v>6</v>
+      </c>
+      <c r="M31" s="58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="77"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="67"/>
+      <c r="H32" s="58">
+        <v>55</v>
+      </c>
+      <c r="I32" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="64">
+        <v>5</v>
+      </c>
+      <c r="M32" s="58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="77"/>
+      <c r="G33" s="38"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="18"/>
+    </row>
+    <row r="34" spans="3:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="77"/>
+      <c r="D34" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="63"/>
+      <c r="H34" s="58">
+        <v>37</v>
+      </c>
+      <c r="I34" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="62"/>
+      <c r="K34" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="L34" s="64">
+        <v>16</v>
+      </c>
+      <c r="M34" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="63"/>
+      <c r="H35" s="58">
+        <v>41</v>
+      </c>
+      <c r="I35" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="L35" s="75">
+        <v>17</v>
+      </c>
+      <c r="M35" s="58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="43">
         <v>2</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="61">
-        <v>2</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="46">
-        <v>3</v>
-      </c>
-      <c r="H6" s="11">
-        <v>36</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L6" s="34">
-        <v>19</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="11">
-        <v>31</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="34">
-        <v>4</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="46">
-        <v>4</v>
-      </c>
-      <c r="H8" s="11">
-        <v>32</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="53">
+      <c r="H36" s="3">
+        <v>26</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L36" s="48">
         <v>-1</v>
       </c>
-      <c r="M8" s="30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="11">
-        <v>19</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="34">
-        <v>3</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="12" t="s">
+      <c r="M36" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="47">
-        <v>6</v>
-      </c>
-      <c r="H10" s="11">
-        <v>21</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="54">
+      <c r="F37" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="42"/>
+      <c r="H37" s="3">
+        <v>45</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" s="49">
         <v>-1</v>
       </c>
-      <c r="M10" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C11" s="68"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="19"/>
-    </row>
-    <row r="12" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C12" s="68"/>
-      <c r="D12" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="52">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11">
-        <v>43</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="53">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C13" s="68"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="11">
-        <v>51</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="34">
-        <v>10</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C14" s="68"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="46">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11">
-        <v>25</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="53">
-        <v>-1</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C15" s="68"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="47">
-        <v>5</v>
-      </c>
-      <c r="H15" s="11">
-        <v>18</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="54">
-        <v>-1</v>
-      </c>
-      <c r="M15" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C16" s="68"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="3:13" s="66" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C17" s="68"/>
-      <c r="D17" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="64">
-        <v>43</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="61">
-        <v>1</v>
-      </c>
-      <c r="M17" s="65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C18" s="68"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="19"/>
-    </row>
-    <row r="19" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C19" s="68"/>
-      <c r="D19" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="11">
-        <v>39</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="L19" s="34">
-        <v>11</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C20" s="68"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="11">
-        <v>29</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="34">
-        <v>12</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C21" s="68"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="11">
-        <v>38</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="35">
-        <v>7</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="68"/>
-      <c r="G22" s="44"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="68"/>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="18">
-        <v>42</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" s="38">
-        <v>9</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G24" s="44"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="25" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C25" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="18">
-        <v>48</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="39">
-        <v>8</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="4">
-        <v>31</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L26" s="38">
-        <v>18</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="18">
-        <v>30</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L27" s="39">
-        <v>14</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="4">
-        <v>35</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" s="38">
-        <v>15</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="18">
-        <v>23</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L29" s="39">
-        <v>13</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="68"/>
-      <c r="G30" s="44"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="19"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C31" s="68"/>
-      <c r="D31" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="4">
-        <v>57</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="L31" s="39">
-        <v>6</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="48"/>
-      <c r="H32" s="4">
-        <v>55</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L32" s="39">
-        <v>5</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="68"/>
-      <c r="G33" s="44"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="19"/>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C34" s="68"/>
-      <c r="D34" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="4">
-        <v>37</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L34" s="39">
-        <v>16</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" s="50"/>
-      <c r="H35" s="4">
-        <v>41</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L35" s="40">
-        <v>17</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="49">
-        <v>2</v>
-      </c>
-      <c r="H36" s="4">
-        <v>26</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L36" s="55">
-        <v>-1</v>
-      </c>
-      <c r="M36" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="4">
-        <v>45</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L37" s="56">
-        <v>-1</v>
-      </c>
-      <c r="M37" s="30" t="s">
+      <c r="M37" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2453,361 +2480,361 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="9" style="58"/>
-    <col min="5" max="5" width="17.375" style="58" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="58" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="58" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="58" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="58" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="58"/>
+    <col min="1" max="4" width="9" style="51"/>
+    <col min="5" max="5" width="17.375" style="51" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="51" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="51" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="51" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="D2" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="F2" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="52">
+        <v>0</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="57" t="s">
+      <c r="E4" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="59">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="F4" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="12">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="12">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="13">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="F6" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="13">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="12">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="13">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="12">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="13">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="12">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="13">
-        <v>6</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
